--- a/output/nswhealthitocmedicationadministration.xlsx
+++ b/output/nswhealthitocmedicationadministration.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$91</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3562" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3271" uniqueCount="419">
   <si>
     <t>Path</t>
   </si>
@@ -822,12 +822,6 @@
     <t>http://cerner.com/itoc/codes</t>
   </si>
   <si>
-    <t>imdsoft</t>
-  </si>
-  <si>
-    <t>http://www.imd-soft.com/itoc/codes</t>
-  </si>
-  <si>
     <t>MedicationAdministration.medication[x].text</t>
   </si>
   <si>
@@ -865,7 +859,7 @@
     <t>MedicationAdministration.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(http://fhir.health.nsw.gov.au/fhir/ehealth/itoc/v1.0/StructureDefinition/nswhealthitocpatient)
 </t>
   </si>
   <si>
@@ -1096,11 +1090,11 @@
     <t>MedicationAdministration.request</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationRequest)
+    <t xml:space="preserve">Reference(http://fhir.health.nsw.gov.au/fhir/ehealth/itoc/v1.0/StructureDefinition/nswhealthitocorder)
 </t>
   </si>
   <si>
-    <t>Request administration performed against</t>
+    <t>The order relating to this medication administration.</t>
   </si>
   <si>
     <t>The original request, instruction or authority to perform the administration.</t>
@@ -1473,7 +1467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN99"/>
+  <dimension ref="A1:AN91"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -8720,11 +8714,9 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="B64" t="s" s="2">
         <v>259</v>
       </c>
+      <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
         <v>41</v>
       </c>
@@ -8745,19 +8737,19 @@
         <v>51</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>186</v>
+        <v>52</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>187</v>
+        <v>260</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>188</v>
+        <v>261</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>189</v>
+        <v>262</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>190</v>
+        <v>263</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>41</v>
@@ -8806,13 +8798,13 @@
         <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>192</v>
+        <v>264</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>41</v>
@@ -8824,13 +8816,13 @@
         <v>41</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>193</v>
+        <v>265</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>194</v>
+        <v>266</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>41</v>
@@ -8838,9 +8830,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="B65" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="C65" t="s" s="2">
         <v>41</v>
       </c>
@@ -8858,18 +8852,20 @@
         <v>41</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>52</v>
+        <v>268</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>176</v>
+        <v>269</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>41</v>
@@ -8918,10 +8914,10 @@
         <v>41</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>50</v>
@@ -8930,19 +8926,19 @@
         <v>41</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>41</v>
+        <v>171</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>41</v>
+        <v>172</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>41</v>
@@ -8950,18 +8946,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>41</v>
@@ -8970,20 +8966,18 @@
         <v>41</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>95</v>
+        <v>271</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>181</v>
+        <v>272</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>41</v>
@@ -9020,43 +9014,43 @@
         <v>41</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>184</v>
+        <v>270</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>41</v>
+        <v>274</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>179</v>
+        <v>275</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>41</v>
+        <v>276</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>41</v>
+        <v>277</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>41</v>
@@ -9064,7 +9058,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>201</v>
+        <v>278</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9072,7 +9066,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>50</v>
@@ -9084,29 +9078,25 @@
         <v>41</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>64</v>
+        <v>279</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>202</v>
+        <v>280</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
-        <v>260</v>
+        <v>41</v>
       </c>
       <c r="R67" t="s" s="2">
         <v>41</v>
@@ -9148,7 +9138,7 @@
         <v>41</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>207</v>
+        <v>278</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9163,16 +9153,16 @@
         <v>62</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>41</v>
+        <v>282</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>208</v>
+        <v>283</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>209</v>
+        <v>285</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>41</v>
@@ -9180,7 +9170,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>210</v>
+        <v>286</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9191,7 +9181,7 @@
         <v>42</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>41</v>
@@ -9200,20 +9190,18 @@
         <v>41</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>52</v>
+        <v>287</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>211</v>
+        <v>288</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>41</v>
@@ -9262,13 +9250,13 @@
         <v>41</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>214</v>
+        <v>286</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>41</v>
@@ -9280,13 +9268,13 @@
         <v>41</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>215</v>
+        <v>290</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>216</v>
+        <v>41</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>41</v>
@@ -9294,7 +9282,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>217</v>
+        <v>291</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9302,7 +9290,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>50</v>
@@ -9317,18 +9305,16 @@
         <v>51</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>70</v>
+        <v>292</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>218</v>
+        <v>293</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>219</v>
+        <v>294</v>
       </c>
       <c r="M69" s="2"/>
-      <c r="N69" t="s" s="2">
-        <v>220</v>
-      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>41</v>
       </c>
@@ -9376,10 +9362,10 @@
         <v>41</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>221</v>
+        <v>291</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>50</v>
@@ -9391,16 +9377,16 @@
         <v>62</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>41</v>
+        <v>295</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>222</v>
+        <v>296</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>41</v>
+        <v>297</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>223</v>
+        <v>298</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>41</v>
@@ -9408,7 +9394,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>224</v>
+        <v>299</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9416,10 +9402,10 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>41</v>
@@ -9431,18 +9417,16 @@
         <v>51</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>52</v>
+        <v>300</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>225</v>
+        <v>301</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>226</v>
+        <v>302</v>
       </c>
       <c r="M70" s="2"/>
-      <c r="N70" t="s" s="2">
-        <v>227</v>
-      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>41</v>
       </c>
@@ -9490,13 +9474,13 @@
         <v>41</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>228</v>
+        <v>299</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>41</v>
@@ -9505,16 +9489,16 @@
         <v>62</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>41</v>
+        <v>303</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>229</v>
+        <v>304</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>41</v>
+        <v>305</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>230</v>
+        <v>306</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>41</v>
@@ -9522,7 +9506,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>231</v>
+        <v>307</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9542,23 +9526,19 @@
         <v>41</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>232</v>
+        <v>52</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>233</v>
+        <v>176</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>41</v>
       </c>
@@ -9606,7 +9586,7 @@
         <v>41</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>237</v>
+        <v>178</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -9618,19 +9598,19 @@
         <v>41</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>238</v>
+        <v>179</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>239</v>
+        <v>41</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>41</v>
@@ -9638,18 +9618,18 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>261</v>
+        <v>308</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>41</v>
@@ -9658,23 +9638,21 @@
         <v>41</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>262</v>
+        <v>181</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>263</v>
+        <v>182</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>41</v>
       </c>
@@ -9722,31 +9700,31 @@
         <v>41</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>266</v>
+        <v>184</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>267</v>
+        <v>179</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>268</v>
+        <v>41</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>41</v>
@@ -9754,43 +9732,43 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>41</v>
+        <v>310</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>270</v>
+        <v>95</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>271</v>
+        <v>311</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>163</v>
+        <v>312</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>41</v>
       </c>
@@ -9838,31 +9816,31 @@
         <v>41</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>160</v>
+        <v>313</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>170</v>
+        <v>93</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>172</v>
+        <v>41</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>41</v>
@@ -9870,7 +9848,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9878,7 +9856,7 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>50</v>
@@ -9890,16 +9868,16 @@
         <v>41</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>273</v>
+        <v>144</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>275</v>
+        <v>316</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9926,13 +9904,13 @@
         <v>41</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>41</v>
+        <v>317</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>41</v>
+        <v>318</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>41</v>
@@ -9950,10 +9928,10 @@
         <v>41</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>50</v>
@@ -9965,16 +9943,16 @@
         <v>62</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>276</v>
+        <v>319</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>277</v>
+        <v>320</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>278</v>
+        <v>41</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>279</v>
+        <v>41</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>41</v>
@@ -9982,7 +9960,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9990,7 +9968,7 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>50</v>
@@ -10002,16 +9980,16 @@
         <v>41</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>282</v>
+        <v>323</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10062,10 +10040,10 @@
         <v>41</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>50</v>
@@ -10077,16 +10055,16 @@
         <v>62</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>286</v>
+        <v>41</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>287</v>
+        <v>41</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>41</v>
@@ -10094,7 +10072,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10117,13 +10095,13 @@
         <v>41</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>289</v>
+        <v>144</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10150,13 +10128,13 @@
         <v>41</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>41</v>
+        <v>330</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>41</v>
+        <v>331</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>41</v>
@@ -10174,7 +10152,7 @@
         <v>41</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
@@ -10189,16 +10167,16 @@
         <v>62</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>41</v>
+        <v>332</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>286</v>
+        <v>41</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>41</v>
+        <v>334</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>41</v>
@@ -10206,7 +10184,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10214,10 +10192,10 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>41</v>
@@ -10226,18 +10204,20 @@
         <v>41</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M77" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>41</v>
@@ -10286,13 +10266,13 @@
         <v>41</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>41</v>
@@ -10301,24 +10281,24 @@
         <v>62</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>297</v>
+        <v>340</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>298</v>
+        <v>341</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>299</v>
+        <v>342</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>300</v>
+        <v>41</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>41</v>
+        <v>343</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10329,7 +10309,7 @@
         <v>50</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>41</v>
@@ -10338,18 +10318,20 @@
         <v>41</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>302</v>
+        <v>345</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>303</v>
+        <v>346</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M78" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>41</v>
@@ -10398,13 +10380,13 @@
         <v>41</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>41</v>
@@ -10413,16 +10395,16 @@
         <v>62</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>305</v>
+        <v>349</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>306</v>
+        <v>350</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>307</v>
+        <v>41</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>308</v>
+        <v>351</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>41</v>
@@ -10430,7 +10412,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10441,7 +10423,7 @@
         <v>42</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>41</v>
@@ -10453,13 +10435,13 @@
         <v>41</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>52</v>
+        <v>353</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>176</v>
+        <v>354</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>177</v>
+        <v>355</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10510,31 +10492,31 @@
         <v>41</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>178</v>
+        <v>352</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>179</v>
+        <v>356</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>41</v>
+        <v>357</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>41</v>
@@ -10542,11 +10524,11 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>310</v>
+        <v>358</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10565,17 +10547,15 @@
         <v>41</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>95</v>
+        <v>359</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>181</v>
+        <v>360</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>41</v>
@@ -10624,7 +10604,7 @@
         <v>41</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>184</v>
+        <v>358</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
@@ -10636,13 +10616,13 @@
         <v>41</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>41</v>
+        <v>362</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>179</v>
+        <v>363</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>41</v>
@@ -10656,43 +10636,39 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>311</v>
+        <v>364</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>312</v>
+        <v>41</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>95</v>
+        <v>300</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>313</v>
+        <v>365</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>41</v>
       </c>
@@ -10740,25 +10716,25 @@
         <v>41</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>101</v>
+        <v>367</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>93</v>
+        <v>368</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>41</v>
@@ -10772,7 +10748,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>316</v>
+        <v>369</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10795,13 +10771,13 @@
         <v>41</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>144</v>
+        <v>52</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>317</v>
+        <v>176</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>318</v>
+        <v>177</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10828,13 +10804,13 @@
         <v>41</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>319</v>
+        <v>41</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>320</v>
+        <v>41</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>41</v>
@@ -10852,7 +10828,7 @@
         <v>41</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>316</v>
+        <v>178</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
@@ -10864,13 +10840,13 @@
         <v>41</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>321</v>
+        <v>41</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>322</v>
+        <v>179</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>41</v>
@@ -10884,18 +10860,18 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>323</v>
+        <v>370</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>41</v>
@@ -10904,18 +10880,20 @@
         <v>41</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>324</v>
+        <v>95</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>325</v>
+        <v>181</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M83" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>41</v>
@@ -10964,25 +10942,25 @@
         <v>41</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>323</v>
+        <v>184</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>327</v>
+        <v>41</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>328</v>
+        <v>179</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>41</v>
@@ -10996,11 +10974,11 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>329</v>
+        <v>371</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>41</v>
+        <v>310</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11013,22 +10991,26 @@
         <v>41</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="O84" t="s" s="2">
         <v>41</v>
       </c>
@@ -11052,13 +11034,13 @@
         <v>41</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>332</v>
+        <v>41</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>333</v>
+        <v>41</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>41</v>
@@ -11076,7 +11058,7 @@
         <v>41</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>42</v>
@@ -11088,19 +11070,19 @@
         <v>41</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>334</v>
+        <v>41</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>335</v>
+        <v>93</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>336</v>
+        <v>41</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>41</v>
@@ -11108,7 +11090,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11119,7 +11101,7 @@
         <v>42</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>41</v>
@@ -11131,17 +11113,15 @@
         <v>41</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>338</v>
+        <v>52</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>41</v>
@@ -11190,13 +11170,13 @@
         <v>41</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>41</v>
@@ -11205,24 +11185,24 @@
         <v>62</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>342</v>
+        <v>41</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>344</v>
+        <v>41</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>345</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>346</v>
+        <v>376</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11245,16 +11225,16 @@
         <v>41</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>347</v>
+        <v>144</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>348</v>
+        <v>377</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>350</v>
+        <v>379</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -11280,13 +11260,13 @@
         <v>41</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>41</v>
+        <v>380</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>41</v>
+        <v>381</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>41</v>
@@ -11304,7 +11284,7 @@
         <v>41</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>346</v>
+        <v>376</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>42</v>
@@ -11319,16 +11299,16 @@
         <v>62</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>351</v>
+        <v>41</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>352</v>
+        <v>382</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>353</v>
+        <v>383</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>41</v>
@@ -11336,7 +11316,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>354</v>
+        <v>384</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11347,7 +11327,7 @@
         <v>42</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>41</v>
@@ -11359,13 +11339,13 @@
         <v>41</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>355</v>
+        <v>144</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>356</v>
+        <v>385</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>357</v>
+        <v>386</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11392,13 +11372,13 @@
         <v>41</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>41</v>
+        <v>387</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>41</v>
+        <v>388</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>41</v>
@@ -11416,13 +11396,13 @@
         <v>41</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>354</v>
+        <v>384</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>41</v>
@@ -11434,13 +11414,13 @@
         <v>41</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>358</v>
+        <v>389</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>359</v>
+        <v>390</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>41</v>
@@ -11448,7 +11428,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>360</v>
+        <v>391</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11459,7 +11439,7 @@
         <v>42</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>41</v>
@@ -11471,15 +11451,17 @@
         <v>41</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>361</v>
+        <v>144</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>362</v>
+        <v>392</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M88" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>41</v>
@@ -11504,13 +11486,13 @@
         <v>41</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>41</v>
+        <v>395</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>41</v>
+        <v>396</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>41</v>
@@ -11528,13 +11510,13 @@
         <v>41</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>360</v>
+        <v>391</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>41</v>
@@ -11543,16 +11525,16 @@
         <v>62</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>364</v>
+        <v>41</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>365</v>
+        <v>397</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>41</v>
+        <v>398</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>41</v>
@@ -11560,7 +11542,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>366</v>
+        <v>399</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11583,15 +11565,17 @@
         <v>41</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>302</v>
+        <v>400</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M89" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>41</v>
@@ -11640,7 +11624,7 @@
         <v>41</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>366</v>
+        <v>399</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>42</v>
@@ -11652,19 +11636,19 @@
         <v>41</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>369</v>
+        <v>62</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>41</v>
+        <v>405</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>41</v>
@@ -11672,7 +11656,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11695,15 +11679,17 @@
         <v>41</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>52</v>
+        <v>407</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>176</v>
+        <v>408</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M90" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>41</v>
@@ -11752,7 +11738,7 @@
         <v>41</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>178</v>
+        <v>406</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>42</v>
@@ -11764,19 +11750,19 @@
         <v>41</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>179</v>
+        <v>411</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>41</v>
+        <v>412</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>41</v>
@@ -11784,11 +11770,11 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11807,16 +11793,16 @@
         <v>41</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>95</v>
+        <v>414</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>181</v>
+        <v>415</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>182</v>
+        <v>416</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>110</v>
+        <v>417</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -11866,7 +11852,7 @@
         <v>41</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>184</v>
+        <v>413</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>42</v>
@@ -11878,13 +11864,13 @@
         <v>41</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>179</v>
+        <v>418</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>41</v>
@@ -11893,921 +11879,11 @@
         <v>41</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F93" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
-      <c r="O93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F94" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N94" s="2"/>
-      <c r="O94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="95" hidden="true">
-      <c r="A95" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F95" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
-      <c r="O95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F96" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N96" s="2"/>
-      <c r="O96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="97" hidden="true">
-      <c r="A97" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F97" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="98" hidden="true">
-      <c r="A98" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B98" s="2"/>
-      <c r="C98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F98" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P98" s="2"/>
-      <c r="Q98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="99" hidden="true">
-      <c r="A99" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="B99" s="2"/>
-      <c r="C99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P99" s="2"/>
-      <c r="Q99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN99" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN99">
+  <autoFilter ref="A1:AN91">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12817,7 +11893,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI98">
+  <conditionalFormatting sqref="A2:AI90">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/nswhealthitocmedicationadministration.xlsx
+++ b/output/nswhealthitocmedicationadministration.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3562" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3562" uniqueCount="425">
   <si>
     <t>Path</t>
   </si>
@@ -819,19 +819,25 @@
     <t>cerner</t>
   </si>
   <si>
-    <t>A cerner code</t>
+    <t>The cerner (MULTUM) code for the medication</t>
   </si>
   <si>
     <t>http://cerner.com/itoc/codes</t>
   </si>
   <si>
+    <t>Cerner (MULTUM) code value</t>
+  </si>
+  <si>
     <t>imdsoft</t>
   </si>
   <si>
-    <t>A MetaVision code</t>
+    <t>The MetaVision / IMDsoft code for the medication</t>
   </si>
   <si>
     <t>http://www.imd-soft.com/itoc/codes</t>
+  </si>
+  <si>
+    <t>MetaVision / IMDsoft code value</t>
   </si>
   <si>
     <t>MedicationAdministration.medication[x].text</t>
@@ -8408,7 +8414,7 @@
         <v>70</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>218</v>
+        <v>260</v>
       </c>
       <c r="L61" t="s" s="2">
         <v>219</v>
@@ -8729,7 +8735,7 @@
         <v>185</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>41</v>
@@ -8754,7 +8760,7 @@
         <v>186</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L64" t="s" s="2">
         <v>188</v>
@@ -9112,7 +9118,7 @@
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="R67" t="s" s="2">
         <v>41</v>
@@ -9326,7 +9332,7 @@
         <v>70</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>218</v>
+        <v>264</v>
       </c>
       <c r="L69" t="s" s="2">
         <v>219</v>
@@ -9644,7 +9650,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9670,16 +9676,16 @@
         <v>52</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>41</v>
@@ -9728,7 +9734,7 @@
         <v>41</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
@@ -9746,13 +9752,13 @@
         <v>41</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>41</v>
@@ -9763,7 +9769,7 @@
         <v>160</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C73" t="s" s="2">
         <v>41</v>
@@ -9785,10 +9791,10 @@
         <v>51</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L73" t="s" s="2">
         <v>163</v>
@@ -9876,7 +9882,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9899,13 +9905,13 @@
         <v>51</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9956,7 +9962,7 @@
         <v>41</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>50</v>
@@ -9971,16 +9977,16 @@
         <v>62</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>41</v>
@@ -9988,7 +9994,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10011,13 +10017,13 @@
         <v>41</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10068,7 +10074,7 @@
         <v>41</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
@@ -10083,16 +10089,16 @@
         <v>62</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>41</v>
@@ -10100,7 +10106,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10123,13 +10129,13 @@
         <v>41</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10180,7 +10186,7 @@
         <v>41</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
@@ -10198,10 +10204,10 @@
         <v>41</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>41</v>
@@ -10212,7 +10218,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10235,13 +10241,13 @@
         <v>51</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10292,7 +10298,7 @@
         <v>41</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>50</v>
@@ -10307,16 +10313,16 @@
         <v>62</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>41</v>
@@ -10324,7 +10330,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10347,13 +10353,13 @@
         <v>51</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10404,7 +10410,7 @@
         <v>41</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
@@ -10419,16 +10425,16 @@
         <v>62</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>41</v>
@@ -10436,7 +10442,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10548,7 +10554,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10662,11 +10668,11 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10688,10 +10694,10 @@
         <v>95</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M81" t="s" s="2">
         <v>110</v>
@@ -10746,7 +10752,7 @@
         <v>41</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>42</v>
@@ -10778,7 +10784,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10804,10 +10810,10 @@
         <v>144</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10837,10 +10843,10 @@
         <v>147</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>41</v>
@@ -10858,7 +10864,7 @@
         <v>41</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
@@ -10873,10 +10879,10 @@
         <v>62</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>41</v>
@@ -10890,7 +10896,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10913,13 +10919,13 @@
         <v>51</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -10970,7 +10976,7 @@
         <v>41</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>50</v>
@@ -10985,10 +10991,10 @@
         <v>62</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>41</v>
@@ -11002,7 +11008,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11028,10 +11034,10 @@
         <v>144</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -11061,10 +11067,10 @@
         <v>147</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>41</v>
@@ -11082,7 +11088,7 @@
         <v>41</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>42</v>
@@ -11097,16 +11103,16 @@
         <v>62</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>41</v>
@@ -11114,7 +11120,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11137,16 +11143,16 @@
         <v>41</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11196,7 +11202,7 @@
         <v>41</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>42</v>
@@ -11211,24 +11217,24 @@
         <v>62</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11251,16 +11257,16 @@
         <v>41</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -11310,7 +11316,7 @@
         <v>41</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>42</v>
@@ -11325,16 +11331,16 @@
         <v>62</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>41</v>
@@ -11342,7 +11348,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11365,13 +11371,13 @@
         <v>41</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11422,7 +11428,7 @@
         <v>41</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>42</v>
@@ -11440,13 +11446,13 @@
         <v>41</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>41</v>
@@ -11454,7 +11460,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11477,13 +11483,13 @@
         <v>41</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -11534,7 +11540,7 @@
         <v>41</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>42</v>
@@ -11549,10 +11555,10 @@
         <v>62</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>41</v>
@@ -11566,7 +11572,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11589,13 +11595,13 @@
         <v>41</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11646,7 +11652,7 @@
         <v>41</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>42</v>
@@ -11658,13 +11664,13 @@
         <v>41</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>41</v>
@@ -11678,7 +11684,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11790,7 +11796,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11904,11 +11910,11 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -11930,10 +11936,10 @@
         <v>95</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M92" t="s" s="2">
         <v>110</v>
@@ -11988,7 +11994,7 @@
         <v>41</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>42</v>
@@ -12020,7 +12026,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12046,10 +12052,10 @@
         <v>52</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12100,7 +12106,7 @@
         <v>41</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>42</v>
@@ -12118,7 +12124,7 @@
         <v>41</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>41</v>
@@ -12132,7 +12138,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12158,13 +12164,13 @@
         <v>144</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -12193,10 +12199,10 @@
         <v>147</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>41</v>
@@ -12214,7 +12220,7 @@
         <v>41</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>42</v>
@@ -12232,13 +12238,13 @@
         <v>41</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>41</v>
@@ -12246,7 +12252,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12272,10 +12278,10 @@
         <v>144</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -12305,10 +12311,10 @@
         <v>147</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>41</v>
@@ -12326,7 +12332,7 @@
         <v>41</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>42</v>
@@ -12344,13 +12350,13 @@
         <v>41</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>41</v>
@@ -12358,7 +12364,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12384,13 +12390,13 @@
         <v>144</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -12419,10 +12425,10 @@
         <v>147</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>41</v>
@@ -12440,7 +12446,7 @@
         <v>41</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>42</v>
@@ -12458,13 +12464,13 @@
         <v>41</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>41</v>
@@ -12472,7 +12478,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12495,16 +12501,16 @@
         <v>41</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -12554,7 +12560,7 @@
         <v>41</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>42</v>
@@ -12572,13 +12578,13 @@
         <v>41</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>41</v>
@@ -12586,7 +12592,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12609,16 +12615,16 @@
         <v>41</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -12668,7 +12674,7 @@
         <v>41</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>42</v>
@@ -12686,13 +12692,13 @@
         <v>41</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>41</v>
@@ -12700,7 +12706,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12723,16 +12729,16 @@
         <v>41</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -12782,7 +12788,7 @@
         <v>41</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>42</v>
@@ -12800,7 +12806,7 @@
         <v>41</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>41</v>

--- a/output/nswhealthitocmedicationadministration.xlsx
+++ b/output/nswhealthitocmedicationadministration.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$99</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3052" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3562" uniqueCount="424">
   <si>
     <t>Path</t>
   </si>
@@ -522,13 +522,6 @@
     <t>MedicationAdministration.medication[x]</t>
   </si>
   <si>
-    <t>medicationCodeableConcept</t>
-  </si>
-  <si>
-    <t>CodeableConcept
-Reference(Medication)</t>
-  </si>
-  <si>
     <t>Medication Detail</t>
   </si>
   <si>
@@ -563,6 +556,12 @@
     <t>RXA-5-Administered Code</t>
   </si>
   <si>
+    <t>medicationCodeableConcept</t>
+  </si>
+  <si>
+    <t>Coded Medication</t>
+  </si>
+  <si>
     <t>MedicationAdministration.medication[x].id</t>
   </si>
   <si>
@@ -591,9 +590,6 @@
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Coded Medication</t>
   </si>
   <si>
     <t>MedicationAdministration.medication[x].coding</t>
@@ -814,6 +810,30 @@
   </si>
   <si>
     <t>http://www.mims.com.au/codes</t>
+  </si>
+  <si>
+    <t>cerner</t>
+  </si>
+  <si>
+    <t>The cerner (MULTUM) code for the medication</t>
+  </si>
+  <si>
+    <t>http://cerner.com/itoc/codes</t>
+  </si>
+  <si>
+    <t>Cerner (MULTUM) code value</t>
+  </si>
+  <si>
+    <t>imdsoft</t>
+  </si>
+  <si>
+    <t>The MetaVision / IMDsoft code for the medication</t>
+  </si>
+  <si>
+    <t>http://www.imd-soft.com/itoc/codes</t>
+  </si>
+  <si>
+    <t>MetaVision / IMDsoft code value</t>
   </si>
   <si>
     <t>MedicationAdministration.medication[x].text</t>
@@ -1461,7 +1481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN85"/>
+  <dimension ref="A1:AN99"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3448,9 +3468,7 @@
       <c r="A18" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="B18" t="s" s="2">
-        <v>161</v>
-      </c>
+      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
         <v>41</v>
       </c>
@@ -3471,16 +3489,16 @@
         <v>51</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3509,23 +3527,23 @@
         <v>147</v>
       </c>
       <c r="X18" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA18" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AE18" t="s" s="2">
         <v>160</v>
@@ -3543,16 +3561,16 @@
         <v>62</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>41</v>
@@ -3560,9 +3578,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="C19" t="s" s="2">
         <v>41</v>
       </c>
@@ -3580,18 +3600,20 @@
         <v>41</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>41</v>
@@ -3616,13 +3638,13 @@
         <v>41</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>41</v>
+        <v>165</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>41</v>
@@ -3640,10 +3662,10 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>50</v>
@@ -3652,19 +3674,19 @@
         <v>41</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>41</v>
+        <v>171</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>41</v>
@@ -3672,18 +3694,18 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>41</v>
@@ -3695,17 +3717,15 @@
         <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>41</v>
@@ -3742,31 +3762,31 @@
         <v>41</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>182</v>
+        <v>41</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>41</v>
@@ -3786,20 +3806,18 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>41</v>
@@ -3808,19 +3826,19 @@
         <v>41</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3846,55 +3864,55 @@
         <v>41</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>167</v>
+        <v>41</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>172</v>
+        <v>41</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>41</v>
@@ -3902,7 +3920,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3913,7 +3931,7 @@
         <v>42</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>41</v>
@@ -3922,19 +3940,23 @@
         <v>41</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>52</v>
+        <v>185</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>41</v>
       </c>
@@ -3970,43 +3992,41 @@
         <v>41</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>41</v>
@@ -4014,11 +4034,13 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="C23" t="s" s="2">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4034,21 +4056,23 @@
         <v>41</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>41</v>
       </c>
@@ -4072,31 +4096,29 @@
         <v>41</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="X23" s="2"/>
       <c r="Y23" t="s" s="2">
-        <v>41</v>
+        <v>197</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>182</v>
+        <v>41</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -4108,19 +4130,19 @@
         <v>41</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>41</v>
@@ -4128,7 +4150,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4139,7 +4161,7 @@
         <v>42</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>41</v>
@@ -4148,23 +4170,19 @@
         <v>41</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>186</v>
+        <v>52</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>41</v>
       </c>
@@ -4200,41 +4218,43 @@
         <v>41</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AB24" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>194</v>
+        <v>41</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>41</v>
@@ -4242,13 +4262,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4264,23 +4282,21 @@
         <v>41</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>186</v>
+        <v>95</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>41</v>
       </c>
@@ -4304,29 +4320,31 @@
         <v>41</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X25" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y25" t="s" s="2">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4338,19 +4356,19 @@
         <v>41</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>194</v>
+        <v>41</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>41</v>
@@ -4358,7 +4376,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4366,7 +4384,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>50</v>
@@ -4378,25 +4396,29 @@
         <v>41</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>41</v>
+        <v>205</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>41</v>
@@ -4438,7 +4460,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4450,19 +4472,19 @@
         <v>41</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>41</v>
@@ -4470,18 +4492,18 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>41</v>
@@ -4490,19 +4512,19 @@
         <v>41</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>110</v>
+        <v>212</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4540,43 +4562,43 @@
         <v>41</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>182</v>
+        <v>41</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>41</v>
+        <v>215</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>41</v>
@@ -4584,7 +4606,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4592,7 +4614,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>50</v>
@@ -4607,26 +4629,24 @@
         <v>51</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>206</v>
+        <v>41</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>41</v>
@@ -4668,7 +4688,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4686,13 +4706,13 @@
         <v>41</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>41</v>
@@ -4700,7 +4720,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4726,15 +4746,15 @@
         <v>52</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>41</v>
       </c>
@@ -4782,7 +4802,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4800,13 +4820,13 @@
         <v>41</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>41</v>
@@ -4814,7 +4834,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4837,17 +4857,19 @@
         <v>51</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>70</v>
+        <v>231</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="N30" t="s" s="2">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>41</v>
@@ -4896,7 +4918,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4914,13 +4936,13 @@
         <v>41</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>41</v>
@@ -4928,9 +4950,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="C31" t="s" s="2">
         <v>41</v>
       </c>
@@ -4939,7 +4963,7 @@
         <v>42</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>41</v>
@@ -4951,17 +4975,19 @@
         <v>51</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>52</v>
+        <v>185</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="N31" t="s" s="2">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>41</v>
@@ -4986,13 +5012,11 @@
         <v>41</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="X31" s="2"/>
       <c r="Y31" t="s" s="2">
-        <v>41</v>
+        <v>242</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>41</v>
@@ -5010,13 +5034,13 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>41</v>
@@ -5028,13 +5052,13 @@
         <v>41</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>41</v>
@@ -5042,7 +5066,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5062,23 +5086,19 @@
         <v>41</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>232</v>
+        <v>52</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>233</v>
+        <v>175</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>41</v>
       </c>
@@ -5126,7 +5146,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>237</v>
+        <v>177</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5138,19 +5158,19 @@
         <v>41</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>238</v>
+        <v>178</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>239</v>
+        <v>41</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>41</v>
@@ -5158,13 +5178,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5180,23 +5198,21 @@
         <v>41</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>186</v>
+        <v>95</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>241</v>
+        <v>180</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>242</v>
+        <v>181</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>41</v>
       </c>
@@ -5220,29 +5236,31 @@
         <v>41</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X33" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y33" t="s" s="2">
-        <v>243</v>
+        <v>41</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5254,19 +5272,19 @@
         <v>41</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>194</v>
+        <v>41</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>41</v>
@@ -5274,7 +5292,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5282,7 +5300,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>50</v>
@@ -5294,25 +5312,29 @@
         <v>41</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>41</v>
+        <v>243</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>41</v>
@@ -5354,7 +5376,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5366,19 +5388,19 @@
         <v>41</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>41</v>
@@ -5386,18 +5408,18 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>41</v>
@@ -5406,19 +5428,19 @@
         <v>41</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>110</v>
+        <v>212</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5456,43 +5478,43 @@
         <v>41</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>182</v>
+        <v>41</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>41</v>
+        <v>215</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>41</v>
@@ -5500,7 +5522,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5508,7 +5530,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>50</v>
@@ -5523,26 +5545,24 @@
         <v>51</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>244</v>
+        <v>41</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>41</v>
@@ -5584,7 +5604,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5602,13 +5622,13 @@
         <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>41</v>
@@ -5616,7 +5636,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5642,15 +5662,15 @@
         <v>52</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>41</v>
       </c>
@@ -5698,7 +5718,7 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5716,13 +5736,13 @@
         <v>41</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>41</v>
@@ -5730,7 +5750,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5753,17 +5773,19 @@
         <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>70</v>
+        <v>231</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="N38" t="s" s="2">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>41</v>
@@ -5812,7 +5834,7 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5830,13 +5852,13 @@
         <v>41</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>41</v>
@@ -5844,9 +5866,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="B39" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="C39" t="s" s="2">
         <v>41</v>
       </c>
@@ -5855,7 +5879,7 @@
         <v>42</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>41</v>
@@ -5867,17 +5891,19 @@
         <v>51</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>52</v>
+        <v>185</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="N39" t="s" s="2">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>41</v>
@@ -5902,13 +5928,11 @@
         <v>41</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="X39" s="2"/>
       <c r="Y39" t="s" s="2">
-        <v>41</v>
+        <v>246</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>41</v>
@@ -5926,13 +5950,13 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>41</v>
@@ -5944,13 +5968,13 @@
         <v>41</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>41</v>
@@ -5958,7 +5982,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5978,23 +6002,19 @@
         <v>41</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>232</v>
+        <v>52</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>233</v>
+        <v>175</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>41</v>
       </c>
@@ -6042,7 +6062,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>237</v>
+        <v>177</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6054,19 +6074,19 @@
         <v>41</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>238</v>
+        <v>178</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>239</v>
+        <v>41</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>41</v>
@@ -6074,11 +6094,9 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
         <v>41</v>
       </c>
@@ -6096,23 +6114,19 @@
         <v>41</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>186</v>
+        <v>95</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>246</v>
+        <v>96</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>41</v>
       </c>
@@ -6136,29 +6150,31 @@
         <v>41</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X41" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y41" t="s" s="2">
-        <v>247</v>
+        <v>41</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6170,19 +6186,19 @@
         <v>41</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>194</v>
+        <v>41</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>41</v>
@@ -6192,7 +6208,9 @@
       <c r="A42" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="B42" s="2"/>
+      <c r="B42" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="C42" t="s" s="2">
         <v>41</v>
       </c>
@@ -6213,13 +6231,13 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>52</v>
+        <v>248</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>175</v>
+        <v>249</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>176</v>
+        <v>250</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6270,25 +6288,25 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>178</v>
+        <v>41</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>41</v>
@@ -6310,10 +6328,10 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>41</v>
@@ -6322,25 +6340,29 @@
         <v>41</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>96</v>
+        <v>201</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>41</v>
+        <v>251</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>41</v>
@@ -6370,43 +6392,43 @@
         <v>41</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>182</v>
+        <v>41</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>41</v>
+        <v>207</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>41</v>
@@ -6414,11 +6436,9 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
         <v>41</v>
       </c>
@@ -6436,18 +6456,20 @@
         <v>41</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>249</v>
+        <v>52</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>41</v>
@@ -6496,31 +6518,31 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>41</v>
+        <v>214</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>41</v>
+        <v>215</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>41</v>
@@ -6528,7 +6550,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6536,7 +6558,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>50</v>
@@ -6551,26 +6573,24 @@
         <v>51</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>252</v>
+        <v>41</v>
       </c>
       <c r="R45" t="s" s="2">
         <v>41</v>
@@ -6612,7 +6632,7 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6630,13 +6650,13 @@
         <v>41</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>41</v>
@@ -6644,7 +6664,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6670,15 +6690,15 @@
         <v>52</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>41</v>
       </c>
@@ -6726,7 +6746,7 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6744,13 +6764,13 @@
         <v>41</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>41</v>
@@ -6758,7 +6778,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6781,17 +6801,19 @@
         <v>51</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>70</v>
+        <v>231</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="N47" t="s" s="2">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>41</v>
@@ -6840,7 +6862,7 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -6858,13 +6880,13 @@
         <v>41</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>41</v>
@@ -6872,9 +6894,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="B48" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="C48" t="s" s="2">
         <v>41</v>
       </c>
@@ -6895,17 +6919,19 @@
         <v>51</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>52</v>
+        <v>185</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="N48" t="s" s="2">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>41</v>
@@ -6930,13 +6956,11 @@
         <v>41</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="X48" s="2"/>
       <c r="Y48" t="s" s="2">
-        <v>41</v>
+        <v>254</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>41</v>
@@ -6954,13 +6978,13 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>41</v>
@@ -6972,13 +6996,13 @@
         <v>41</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>41</v>
@@ -6986,7 +7010,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7006,23 +7030,19 @@
         <v>41</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>232</v>
+        <v>52</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>233</v>
+        <v>175</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>41</v>
       </c>
@@ -7070,7 +7090,7 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>237</v>
+        <v>177</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7082,19 +7102,19 @@
         <v>41</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>238</v>
+        <v>178</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>239</v>
+        <v>41</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>41</v>
@@ -7102,20 +7122,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>41</v>
@@ -7124,23 +7142,21 @@
         <v>41</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>186</v>
+        <v>95</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>254</v>
+        <v>180</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>41</v>
       </c>
@@ -7164,29 +7180,31 @@
         <v>41</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X50" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y50" t="s" s="2">
-        <v>255</v>
+        <v>41</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7198,19 +7216,19 @@
         <v>41</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>194</v>
+        <v>41</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>41</v>
@@ -7218,7 +7236,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7226,7 +7244,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>50</v>
@@ -7238,25 +7256,29 @@
         <v>41</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>41</v>
+        <v>255</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>41</v>
@@ -7298,7 +7320,7 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7310,19 +7332,19 @@
         <v>41</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>41</v>
@@ -7330,18 +7352,18 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>41</v>
@@ -7350,19 +7372,19 @@
         <v>41</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>110</v>
+        <v>212</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7400,43 +7422,43 @@
         <v>41</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>182</v>
+        <v>41</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>41</v>
+        <v>215</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>41</v>
@@ -7444,7 +7466,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7452,7 +7474,7 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>50</v>
@@ -7467,26 +7489,24 @@
         <v>51</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>256</v>
+        <v>41</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>41</v>
@@ -7528,7 +7548,7 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7546,13 +7566,13 @@
         <v>41</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>41</v>
@@ -7560,7 +7580,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7586,15 +7606,15 @@
         <v>52</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>41</v>
       </c>
@@ -7642,7 +7662,7 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7660,13 +7680,13 @@
         <v>41</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>41</v>
@@ -7674,7 +7694,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7697,17 +7717,19 @@
         <v>51</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>70</v>
+        <v>231</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="N55" t="s" s="2">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>41</v>
@@ -7756,7 +7778,7 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -7774,13 +7796,13 @@
         <v>41</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>41</v>
@@ -7788,9 +7810,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="B56" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="C56" t="s" s="2">
         <v>41</v>
       </c>
@@ -7811,17 +7835,19 @@
         <v>51</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>52</v>
+        <v>185</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="N56" t="s" s="2">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>41</v>
@@ -7870,13 +7896,13 @@
         <v>41</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>41</v>
@@ -7888,13 +7914,13 @@
         <v>41</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>41</v>
@@ -7902,7 +7928,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7922,23 +7948,19 @@
         <v>41</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>232</v>
+        <v>52</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>233</v>
+        <v>175</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>41</v>
       </c>
@@ -7986,7 +8008,7 @@
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>237</v>
+        <v>177</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -7998,19 +8020,19 @@
         <v>41</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>238</v>
+        <v>178</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>239</v>
+        <v>41</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>41</v>
@@ -8018,18 +8040,18 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>257</v>
+        <v>199</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>41</v>
@@ -8038,23 +8060,21 @@
         <v>41</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>258</v>
+        <v>180</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>259</v>
+        <v>181</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>41</v>
       </c>
@@ -8090,43 +8110,43 @@
         <v>41</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>262</v>
+        <v>183</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>263</v>
+        <v>178</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>264</v>
+        <v>41</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>41</v>
@@ -8134,17 +8154,15 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>50</v>
@@ -8159,24 +8177,26 @@
         <v>51</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>266</v>
+        <v>64</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>267</v>
+        <v>201</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>41</v>
+        <v>258</v>
       </c>
       <c r="R59" t="s" s="2">
         <v>41</v>
@@ -8218,10 +8238,10 @@
         <v>41</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>50</v>
@@ -8233,16 +8253,16 @@
         <v>62</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>172</v>
+        <v>41</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>41</v>
@@ -8250,7 +8270,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>268</v>
+        <v>209</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8258,7 +8278,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>50</v>
@@ -8273,15 +8293,17 @@
         <v>51</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>269</v>
+        <v>52</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>270</v>
+        <v>210</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>41</v>
@@ -8330,10 +8352,10 @@
         <v>41</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>50</v>
@@ -8345,16 +8367,16 @@
         <v>62</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>272</v>
+        <v>41</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>273</v>
+        <v>214</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>274</v>
+        <v>41</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>41</v>
@@ -8362,7 +8384,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>276</v>
+        <v>216</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8370,7 +8392,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>50</v>
@@ -8382,19 +8404,21 @@
         <v>41</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>277</v>
+        <v>70</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>279</v>
+        <v>218</v>
       </c>
       <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+      <c r="N61" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>41</v>
       </c>
@@ -8442,7 +8466,7 @@
         <v>41</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>276</v>
+        <v>220</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8457,16 +8481,16 @@
         <v>62</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>280</v>
+        <v>41</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>281</v>
+        <v>221</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>282</v>
+        <v>41</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>283</v>
+        <v>222</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>41</v>
@@ -8474,7 +8498,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>284</v>
+        <v>223</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8485,7 +8509,7 @@
         <v>42</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>41</v>
@@ -8494,19 +8518,21 @@
         <v>41</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>285</v>
+        <v>52</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>286</v>
+        <v>224</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>287</v>
+        <v>225</v>
       </c>
       <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+      <c r="N62" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>41</v>
       </c>
@@ -8554,13 +8580,13 @@
         <v>41</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>284</v>
+        <v>227</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>41</v>
@@ -8572,13 +8598,13 @@
         <v>41</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>288</v>
+        <v>228</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>282</v>
+        <v>41</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>41</v>
+        <v>229</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>41</v>
@@ -8586,7 +8612,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>289</v>
+        <v>230</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8594,7 +8620,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>50</v>
@@ -8609,16 +8635,20 @@
         <v>51</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>290</v>
+        <v>231</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>291</v>
+        <v>232</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>41</v>
       </c>
@@ -8666,10 +8696,10 @@
         <v>41</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>50</v>
@@ -8681,16 +8711,16 @@
         <v>62</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>293</v>
+        <v>41</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>294</v>
+        <v>237</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>295</v>
+        <v>41</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>296</v>
+        <v>238</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>41</v>
@@ -8698,18 +8728,20 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="B64" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="C64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>41</v>
@@ -8721,16 +8753,20 @@
         <v>51</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>298</v>
+        <v>185</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>41</v>
       </c>
@@ -8778,7 +8814,7 @@
         <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>297</v>
+        <v>191</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -8793,16 +8829,16 @@
         <v>62</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>301</v>
+        <v>41</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>302</v>
+        <v>192</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>303</v>
+        <v>41</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>304</v>
+        <v>193</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>41</v>
@@ -8810,7 +8846,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>305</v>
+        <v>198</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8922,7 +8958,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>306</v>
+        <v>199</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8992,16 +9028,16 @@
         <v>41</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="AE66" t="s" s="2">
         <v>183</v>
@@ -9036,49 +9072,49 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>307</v>
+        <v>200</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>308</v>
+        <v>41</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>309</v>
+        <v>201</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>310</v>
+        <v>202</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>110</v>
+        <v>203</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>111</v>
+        <v>204</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
-        <v>41</v>
+        <v>262</v>
       </c>
       <c r="R67" t="s" s="2">
         <v>41</v>
@@ -9120,31 +9156,31 @@
         <v>41</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>311</v>
+        <v>206</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>93</v>
+        <v>207</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>41</v>
@@ -9152,7 +9188,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>312</v>
+        <v>209</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9172,18 +9208,20 @@
         <v>41</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>144</v>
+        <v>52</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>313</v>
+        <v>210</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M68" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>41</v>
@@ -9208,13 +9246,13 @@
         <v>41</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>315</v>
+        <v>41</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>316</v>
+        <v>41</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>41</v>
@@ -9232,7 +9270,7 @@
         <v>41</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>312</v>
+        <v>213</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9247,16 +9285,16 @@
         <v>62</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>317</v>
+        <v>41</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>318</v>
+        <v>214</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>41</v>
+        <v>215</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>41</v>
@@ -9264,7 +9302,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>319</v>
+        <v>216</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9287,16 +9325,18 @@
         <v>51</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>320</v>
+        <v>70</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>321</v>
+        <v>263</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>322</v>
+        <v>218</v>
       </c>
       <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
+      <c r="N69" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>41</v>
       </c>
@@ -9344,10 +9384,10 @@
         <v>41</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>319</v>
+        <v>220</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>50</v>
@@ -9359,16 +9399,16 @@
         <v>62</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>323</v>
+        <v>41</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>324</v>
+        <v>221</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>41</v>
+        <v>222</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>41</v>
@@ -9376,7 +9416,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>325</v>
+        <v>223</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9387,7 +9427,7 @@
         <v>42</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>41</v>
@@ -9396,19 +9436,21 @@
         <v>41</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>144</v>
+        <v>52</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>326</v>
+        <v>224</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>327</v>
+        <v>225</v>
       </c>
       <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+      <c r="N70" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>41</v>
       </c>
@@ -9432,13 +9474,13 @@
         <v>41</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>328</v>
+        <v>41</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>329</v>
+        <v>41</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>41</v>
@@ -9456,13 +9498,13 @@
         <v>41</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>325</v>
+        <v>227</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>41</v>
@@ -9471,16 +9513,16 @@
         <v>62</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>330</v>
+        <v>41</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>331</v>
+        <v>228</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>332</v>
+        <v>229</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>41</v>
@@ -9488,7 +9530,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>333</v>
+        <v>230</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9499,7 +9541,7 @@
         <v>42</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>41</v>
@@ -9508,21 +9550,23 @@
         <v>41</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>334</v>
+        <v>231</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>335</v>
+        <v>232</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>336</v>
+        <v>233</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>41</v>
       </c>
@@ -9570,13 +9614,13 @@
         <v>41</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>333</v>
+        <v>236</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>41</v>
@@ -9585,24 +9629,24 @@
         <v>62</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>338</v>
+        <v>41</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>339</v>
+        <v>237</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>340</v>
+        <v>41</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>41</v>
+        <v>238</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>341</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>342</v>
+        <v>264</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9610,7 +9654,7 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>50</v>
@@ -9622,21 +9666,23 @@
         <v>41</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>343</v>
+        <v>52</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>344</v>
+        <v>265</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>345</v>
+        <v>266</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>41</v>
       </c>
@@ -9684,7 +9730,7 @@
         <v>41</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>342</v>
+        <v>269</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
@@ -9699,16 +9745,16 @@
         <v>62</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>347</v>
+        <v>41</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>348</v>
+        <v>270</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>349</v>
+        <v>271</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>41</v>
@@ -9716,9 +9762,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="B73" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="C73" t="s" s="2">
         <v>41</v>
       </c>
@@ -9727,7 +9775,7 @@
         <v>42</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>41</v>
@@ -9736,18 +9784,20 @@
         <v>41</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>351</v>
+        <v>273</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>352</v>
+        <v>274</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M73" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>41</v>
@@ -9796,13 +9846,13 @@
         <v>41</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>41</v>
@@ -9811,16 +9861,16 @@
         <v>62</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>354</v>
+        <v>169</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>355</v>
+        <v>171</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>41</v>
@@ -9828,7 +9878,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>356</v>
+        <v>275</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9836,10 +9886,10 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>41</v>
@@ -9848,16 +9898,16 @@
         <v>41</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>357</v>
+        <v>276</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>358</v>
+        <v>277</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>359</v>
+        <v>278</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9908,13 +9958,13 @@
         <v>41</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>356</v>
+        <v>275</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>41</v>
@@ -9923,16 +9973,16 @@
         <v>62</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>360</v>
+        <v>279</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>361</v>
+        <v>280</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>41</v>
+        <v>281</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>41</v>
+        <v>282</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>41</v>
@@ -9940,7 +9990,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>362</v>
+        <v>283</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9963,13 +10013,13 @@
         <v>41</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>363</v>
+        <v>285</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>364</v>
+        <v>286</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10020,7 +10070,7 @@
         <v>41</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>362</v>
+        <v>283</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
@@ -10032,19 +10082,19 @@
         <v>41</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>365</v>
+        <v>62</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>41</v>
+        <v>287</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>366</v>
+        <v>288</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>41</v>
+        <v>289</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>41</v>
+        <v>290</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>41</v>
@@ -10052,7 +10102,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>367</v>
+        <v>291</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10063,7 +10113,7 @@
         <v>42</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>41</v>
@@ -10075,13 +10125,13 @@
         <v>41</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>52</v>
+        <v>292</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>175</v>
+        <v>293</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>176</v>
+        <v>294</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10132,28 +10182,28 @@
         <v>41</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>177</v>
+        <v>291</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>178</v>
+        <v>295</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>41</v>
+        <v>289</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>41</v>
@@ -10164,18 +10214,18 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>368</v>
+        <v>296</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>41</v>
@@ -10184,20 +10234,18 @@
         <v>41</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>95</v>
+        <v>297</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>180</v>
+        <v>298</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>41</v>
@@ -10246,31 +10294,31 @@
         <v>41</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>183</v>
+        <v>296</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>41</v>
+        <v>300</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>178</v>
+        <v>301</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>41</v>
+        <v>303</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>41</v>
@@ -10278,15 +10326,15 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>369</v>
+        <v>304</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>308</v>
+        <v>41</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>43</v>
@@ -10295,26 +10343,22 @@
         <v>41</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>95</v>
+        <v>305</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>41</v>
       </c>
@@ -10362,7 +10406,7 @@
         <v>41</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
@@ -10374,19 +10418,19 @@
         <v>41</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>41</v>
+        <v>308</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>93</v>
+        <v>309</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>41</v>
+        <v>310</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>41</v>
+        <v>311</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>41</v>
@@ -10394,7 +10438,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>370</v>
+        <v>312</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10420,10 +10464,10 @@
         <v>52</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>371</v>
+        <v>175</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>372</v>
+        <v>176</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10474,7 +10518,7 @@
         <v>41</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>370</v>
+        <v>177</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
@@ -10486,13 +10530,13 @@
         <v>41</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>373</v>
+        <v>178</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>41</v>
@@ -10506,18 +10550,18 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>374</v>
+        <v>313</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>41</v>
@@ -10529,16 +10573,16 @@
         <v>41</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>375</v>
+        <v>180</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>376</v>
+        <v>181</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>377</v>
+        <v>110</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -10564,13 +10608,13 @@
         <v>41</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>378</v>
+        <v>41</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>379</v>
+        <v>41</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>41</v>
@@ -10588,31 +10632,31 @@
         <v>41</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>374</v>
+        <v>183</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>380</v>
+        <v>178</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>381</v>
+        <v>41</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>41</v>
@@ -10620,39 +10664,43 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>382</v>
+        <v>314</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>41</v>
+        <v>315</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>383</v>
+        <v>316</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>41</v>
       </c>
@@ -10676,13 +10724,13 @@
         <v>41</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>385</v>
+        <v>41</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>386</v>
+        <v>41</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>41</v>
@@ -10700,31 +10748,31 @@
         <v>41</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>382</v>
+        <v>318</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>387</v>
+        <v>93</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>388</v>
+        <v>41</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>41</v>
@@ -10732,7 +10780,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>389</v>
+        <v>319</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10758,14 +10806,12 @@
         <v>144</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>390</v>
+        <v>320</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>41</v>
@@ -10793,10 +10839,10 @@
         <v>147</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>393</v>
+        <v>322</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>394</v>
+        <v>323</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>41</v>
@@ -10814,7 +10860,7 @@
         <v>41</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>389</v>
+        <v>319</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
@@ -10829,16 +10875,16 @@
         <v>62</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>41</v>
+        <v>324</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>395</v>
+        <v>325</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>396</v>
+        <v>41</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>41</v>
@@ -10846,7 +10892,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>397</v>
+        <v>326</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10854,7 +10900,7 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F83" t="s" s="2">
         <v>50</v>
@@ -10866,20 +10912,18 @@
         <v>41</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>398</v>
+        <v>327</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>399</v>
+        <v>328</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>41</v>
@@ -10928,10 +10972,10 @@
         <v>41</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>397</v>
+        <v>326</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>50</v>
@@ -10943,16 +10987,16 @@
         <v>62</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>41</v>
+        <v>330</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>402</v>
+        <v>331</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>403</v>
+        <v>41</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>41</v>
@@ -10960,7 +11004,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>404</v>
+        <v>332</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10971,7 +11015,7 @@
         <v>42</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>41</v>
@@ -10983,17 +11027,15 @@
         <v>41</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>405</v>
+        <v>144</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>406</v>
+        <v>333</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>408</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>41</v>
@@ -11018,13 +11060,13 @@
         <v>41</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>41</v>
+        <v>335</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>41</v>
+        <v>336</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>41</v>
@@ -11042,13 +11084,13 @@
         <v>41</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>404</v>
+        <v>332</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>41</v>
@@ -11057,16 +11099,16 @@
         <v>62</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>41</v>
+        <v>337</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>409</v>
+        <v>338</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>410</v>
+        <v>339</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>41</v>
@@ -11074,7 +11116,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>411</v>
+        <v>340</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11097,16 +11139,16 @@
         <v>41</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>412</v>
+        <v>341</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>413</v>
+        <v>342</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>414</v>
+        <v>343</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>415</v>
+        <v>344</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11156,7 +11198,7 @@
         <v>41</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>411</v>
+        <v>340</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>42</v>
@@ -11171,23 +11213,1609 @@
         <v>62</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>41</v>
+        <v>345</v>
       </c>
       <c r="AK85" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK98" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AL85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN85" t="s" s="2">
+      <c r="AL98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN99" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN85">
+  <autoFilter ref="A1:AN99">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11197,7 +12825,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI84">
+  <conditionalFormatting sqref="A2:AI98">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/nswhealthitocmedicationadministration.xlsx
+++ b/output/nswhealthitocmedicationadministration.xlsx
@@ -968,7 +968,7 @@
 </t>
   </si>
   <si>
-    <t>The practioner(s) who performed the administration.</t>
+    <t>Who performed the medication administration and what they did</t>
   </si>
   <si>
     <t>Indicates who or what performed the medication administration and how they were involved.</t>
@@ -10334,7 +10334,7 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>43</v>

--- a/output/nswhealthitocmedicationadministration.xlsx
+++ b/output/nswhealthitocmedicationadministration.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$100</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3562" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3598" uniqueCount="427">
   <si>
     <t>Path</t>
   </si>
@@ -348,6 +348,16 @@
   <si>
     <t xml:space="preserve">ele-1
 </t>
+  </si>
+  <si>
+    <t>additive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhir.health.nsw.gov.au/fhir/ehealth/itoc/v1.0/StructureDefinition/additive}
+</t>
+  </si>
+  <si>
+    <t>An additive medication</t>
   </si>
   <si>
     <t>MedicationAdministration.modifierExtension</t>
@@ -1481,7 +1491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN99"/>
+  <dimension ref="A1:AN100"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2674,11 +2684,13 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2691,26 +2703,22 @@
         <v>41</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>108</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>41</v>
       </c>
@@ -2758,7 +2766,7 @@
         <v>41</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
@@ -2767,7 +2775,7 @@
         <v>43</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>101</v>
@@ -2776,7 +2784,7 @@
         <v>41</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>41</v>
@@ -2790,11 +2798,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2807,24 +2815,26 @@
         <v>41</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N12" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>41</v>
       </c>
@@ -2872,7 +2882,7 @@
         <v>41</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
@@ -2884,16 +2894,16 @@
         <v>41</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>41</v>
@@ -2904,7 +2914,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2924,18 +2934,20 @@
         <v>41</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>41</v>
@@ -2984,7 +2996,7 @@
         <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>42</v>
@@ -2999,13 +3011,13 @@
         <v>62</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>41</v>
@@ -3016,7 +3028,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3039,13 +3051,13 @@
         <v>51</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3096,7 +3108,7 @@
         <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -3111,10 +3123,10 @@
         <v>62</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>41</v>
@@ -3128,7 +3140,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3136,32 +3148,30 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>41</v>
@@ -3186,13 +3196,13 @@
         <v>41</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>41</v>
@@ -3210,13 +3220,13 @@
         <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>41</v>
@@ -3225,16 +3235,16 @@
         <v>62</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>41</v>
@@ -3242,7 +3252,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3250,30 +3260,32 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>144</v>
+        <v>70</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>41</v>
@@ -3298,13 +3310,13 @@
         <v>41</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>41</v>
@@ -3322,13 +3334,13 @@
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>41</v>
@@ -3337,16 +3349,16 @@
         <v>62</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>41</v>
@@ -3354,7 +3366,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3362,10 +3374,10 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>41</v>
@@ -3377,13 +3389,13 @@
         <v>41</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3392,7 +3404,7 @@
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="R17" t="s" s="2">
         <v>41</v>
@@ -3410,13 +3422,13 @@
         <v>41</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>41</v>
@@ -3434,13 +3446,13 @@
         <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>41</v>
@@ -3449,16 +3461,16 @@
         <v>62</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>41</v>
@@ -3466,7 +3478,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3486,27 +3498,25 @@
         <v>41</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>41</v>
@@ -3524,32 +3534,34 @@
         <v>41</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AB18" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>167</v>
+        <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>50</v>
@@ -3561,16 +3573,16 @@
         <v>62</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>168</v>
+        <v>41</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>41</v>
@@ -3578,17 +3590,15 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>50</v>
@@ -3603,16 +3613,16 @@
         <v>51</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3638,31 +3648,29 @@
         <v>41</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="AB19" s="2"/>
       <c r="AC19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>50</v>
@@ -3677,16 +3685,16 @@
         <v>62</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>41</v>
@@ -3694,9 +3702,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="C20" t="s" s="2">
         <v>41</v>
       </c>
@@ -3714,18 +3724,20 @@
         <v>41</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>52</v>
+        <v>147</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>41</v>
@@ -3750,13 +3762,13 @@
         <v>41</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>41</v>
@@ -3774,10 +3786,10 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>50</v>
@@ -3786,19 +3798,19 @@
         <v>41</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>41</v>
+        <v>171</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>41</v>
+        <v>174</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>41</v>
@@ -3806,18 +3818,18 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>41</v>
@@ -3829,17 +3841,15 @@
         <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>41</v>
@@ -3876,37 +3886,37 @@
         <v>41</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>182</v>
+        <v>41</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>41</v>
@@ -3920,11 +3930,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3940,23 +3950,21 @@
         <v>41</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>185</v>
+        <v>95</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>41</v>
       </c>
@@ -3992,9 +4000,11 @@
         <v>41</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AB22" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="AC22" t="s" s="2">
         <v>41</v>
       </c>
@@ -4002,7 +4012,7 @@
         <v>99</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -4014,19 +4024,19 @@
         <v>41</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>41</v>
@@ -4034,11 +4044,9 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>41</v>
       </c>
@@ -4059,19 +4067,19 @@
         <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>41</v>
@@ -4096,29 +4104,29 @@
         <v>41</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X23" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y23" t="s" s="2">
-        <v>197</v>
+        <v>41</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="AB23" s="2"/>
       <c r="AC23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -4136,13 +4144,13 @@
         <v>41</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>41</v>
@@ -4150,9 +4158,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="C24" t="s" s="2">
         <v>41</v>
       </c>
@@ -4161,7 +4171,7 @@
         <v>42</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>41</v>
@@ -4170,19 +4180,23 @@
         <v>41</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>52</v>
+        <v>188</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>41</v>
       </c>
@@ -4206,13 +4220,11 @@
         <v>41</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="X24" s="2"/>
       <c r="Y24" t="s" s="2">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>41</v>
@@ -4230,31 +4242,31 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>41</v>
@@ -4262,18 +4274,18 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>41</v>
@@ -4285,17 +4297,15 @@
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>41</v>
@@ -4332,37 +4342,37 @@
         <v>41</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>182</v>
+        <v>41</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>41</v>
@@ -4376,18 +4386,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>41</v>
@@ -4396,29 +4406,27 @@
         <v>41</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>205</v>
+        <v>41</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>41</v>
@@ -4448,43 +4456,43 @@
         <v>41</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>208</v>
+        <v>41</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>41</v>
@@ -4492,7 +4500,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4500,7 +4508,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>50</v>
@@ -4515,24 +4523,26 @@
         <v>51</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>41</v>
@@ -4574,7 +4584,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4592,13 +4602,13 @@
         <v>41</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>41</v>
@@ -4606,7 +4616,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4629,18 +4639,18 @@
         <v>51</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>41</v>
       </c>
@@ -4688,7 +4698,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4706,13 +4716,13 @@
         <v>41</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>41</v>
@@ -4720,7 +4730,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4743,17 +4753,17 @@
         <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>41</v>
@@ -4802,7 +4812,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4820,13 +4830,13 @@
         <v>41</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>41</v>
@@ -4834,7 +4844,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4857,19 +4867,17 @@
         <v>51</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>231</v>
+        <v>52</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>41</v>
@@ -4918,7 +4926,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4936,13 +4944,13 @@
         <v>41</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>41</v>
@@ -4950,11 +4958,9 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
         <v>41</v>
       </c>
@@ -4963,7 +4969,7 @@
         <v>42</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>41</v>
@@ -4975,19 +4981,19 @@
         <v>51</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>185</v>
+        <v>234</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>188</v>
+        <v>237</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>189</v>
+        <v>238</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>41</v>
@@ -5012,11 +5018,13 @@
         <v>41</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X31" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y31" t="s" s="2">
-        <v>242</v>
+        <v>41</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>41</v>
@@ -5034,13 +5042,13 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>191</v>
+        <v>239</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>41</v>
@@ -5052,13 +5060,13 @@
         <v>41</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>192</v>
+        <v>240</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>193</v>
+        <v>241</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>41</v>
@@ -5066,9 +5074,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B32" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="C32" t="s" s="2">
         <v>41</v>
       </c>
@@ -5077,7 +5087,7 @@
         <v>42</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>41</v>
@@ -5086,19 +5096,23 @@
         <v>41</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>52</v>
+        <v>188</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>175</v>
+        <v>243</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>41</v>
       </c>
@@ -5122,13 +5136,11 @@
         <v>41</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="X32" s="2"/>
       <c r="Y32" t="s" s="2">
-        <v>41</v>
+        <v>245</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>41</v>
@@ -5146,31 +5158,31 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>41</v>
@@ -5178,18 +5190,18 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>41</v>
@@ -5201,17 +5213,15 @@
         <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>41</v>
@@ -5248,37 +5258,37 @@
         <v>41</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>182</v>
+        <v>41</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>41</v>
@@ -5292,18 +5302,18 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>41</v>
@@ -5312,29 +5322,27 @@
         <v>41</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>243</v>
+        <v>41</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>41</v>
@@ -5364,43 +5372,43 @@
         <v>41</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>208</v>
+        <v>41</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>41</v>
@@ -5408,7 +5416,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5416,7 +5424,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>50</v>
@@ -5431,24 +5439,26 @@
         <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>41</v>
+        <v>246</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>41</v>
@@ -5490,7 +5500,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5508,13 +5518,13 @@
         <v>41</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>41</v>
@@ -5522,7 +5532,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5545,18 +5555,18 @@
         <v>51</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>41</v>
       </c>
@@ -5604,7 +5614,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5622,13 +5632,13 @@
         <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>41</v>
@@ -5636,7 +5646,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5659,17 +5669,17 @@
         <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>41</v>
@@ -5718,7 +5728,7 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5736,13 +5746,13 @@
         <v>41</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>41</v>
@@ -5750,7 +5760,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5773,19 +5783,17 @@
         <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>231</v>
+        <v>52</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>41</v>
@@ -5834,7 +5842,7 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5852,13 +5860,13 @@
         <v>41</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>41</v>
@@ -5866,11 +5874,9 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
         <v>41</v>
       </c>
@@ -5879,7 +5885,7 @@
         <v>42</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>41</v>
@@ -5891,19 +5897,19 @@
         <v>51</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>185</v>
+        <v>234</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>188</v>
+        <v>237</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>189</v>
+        <v>238</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>41</v>
@@ -5928,11 +5934,13 @@
         <v>41</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X39" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y39" t="s" s="2">
-        <v>246</v>
+        <v>41</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>41</v>
@@ -5950,13 +5958,13 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>191</v>
+        <v>239</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>41</v>
@@ -5968,13 +5976,13 @@
         <v>41</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>192</v>
+        <v>240</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>193</v>
+        <v>241</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>41</v>
@@ -5982,9 +5990,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B40" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="C40" t="s" s="2">
         <v>41</v>
       </c>
@@ -5993,7 +6003,7 @@
         <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>41</v>
@@ -6002,19 +6012,23 @@
         <v>41</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>52</v>
+        <v>188</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>175</v>
+        <v>248</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>41</v>
       </c>
@@ -6038,13 +6052,11 @@
         <v>41</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="X40" s="2"/>
       <c r="Y40" t="s" s="2">
-        <v>41</v>
+        <v>249</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>41</v>
@@ -6062,31 +6074,31 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>41</v>
@@ -6094,7 +6106,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6105,7 +6117,7 @@
         <v>42</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>41</v>
@@ -6117,13 +6129,13 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>96</v>
+        <v>178</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6162,37 +6174,37 @@
         <v>41</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>182</v>
+        <v>41</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>41</v>
@@ -6206,11 +6218,9 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
         <v>41</v>
       </c>
@@ -6219,7 +6229,7 @@
         <v>42</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>41</v>
@@ -6231,13 +6241,13 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>248</v>
+        <v>95</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>249</v>
+        <v>96</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6276,19 +6286,19 @@
         <v>41</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6320,15 +6330,17 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="B43" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="C43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>50</v>
@@ -6340,29 +6352,25 @@
         <v>41</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>64</v>
+        <v>251</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>201</v>
+        <v>252</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>251</v>
+        <v>41</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>41</v>
@@ -6404,31 +6412,31 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>207</v>
+        <v>41</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>208</v>
+        <v>41</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>41</v>
@@ -6436,7 +6444,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6444,7 +6452,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>50</v>
@@ -6459,24 +6467,26 @@
         <v>51</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>41</v>
+        <v>254</v>
       </c>
       <c r="R44" t="s" s="2">
         <v>41</v>
@@ -6518,7 +6528,7 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6536,13 +6546,13 @@
         <v>41</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>41</v>
@@ -6550,7 +6560,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6573,18 +6583,18 @@
         <v>51</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>41</v>
       </c>
@@ -6632,7 +6642,7 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6650,13 +6660,13 @@
         <v>41</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>41</v>
@@ -6664,7 +6674,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6687,17 +6697,17 @@
         <v>51</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>41</v>
@@ -6746,7 +6756,7 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6764,13 +6774,13 @@
         <v>41</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>41</v>
@@ -6778,7 +6788,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6801,19 +6811,17 @@
         <v>51</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>231</v>
+        <v>52</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>41</v>
@@ -6862,7 +6870,7 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -6880,13 +6888,13 @@
         <v>41</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>41</v>
@@ -6894,11 +6902,9 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
         <v>41</v>
       </c>
@@ -6919,19 +6925,19 @@
         <v>51</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>185</v>
+        <v>234</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>188</v>
+        <v>237</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>189</v>
+        <v>238</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>41</v>
@@ -6956,11 +6962,13 @@
         <v>41</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X48" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y48" t="s" s="2">
-        <v>254</v>
+        <v>41</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>41</v>
@@ -6978,13 +6986,13 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>191</v>
+        <v>239</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>41</v>
@@ -6996,13 +7004,13 @@
         <v>41</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>192</v>
+        <v>240</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>193</v>
+        <v>241</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>41</v>
@@ -7010,9 +7018,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="C49" t="s" s="2">
         <v>41</v>
       </c>
@@ -7030,19 +7040,23 @@
         <v>41</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>52</v>
+        <v>188</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>175</v>
+        <v>256</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>41</v>
       </c>
@@ -7066,13 +7080,11 @@
         <v>41</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="X49" s="2"/>
       <c r="Y49" t="s" s="2">
-        <v>41</v>
+        <v>257</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>41</v>
@@ -7090,31 +7102,31 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>41</v>
@@ -7122,18 +7134,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>41</v>
@@ -7145,17 +7157,15 @@
         <v>41</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>41</v>
@@ -7192,37 +7202,37 @@
         <v>41</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>182</v>
+        <v>41</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>41</v>
@@ -7236,18 +7246,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>41</v>
@@ -7256,29 +7266,27 @@
         <v>41</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>255</v>
+        <v>41</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>41</v>
@@ -7308,43 +7316,43 @@
         <v>41</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>208</v>
+        <v>41</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>41</v>
@@ -7352,7 +7360,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7360,7 +7368,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>50</v>
@@ -7375,24 +7383,26 @@
         <v>51</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>41</v>
+        <v>258</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>41</v>
@@ -7434,7 +7444,7 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7452,13 +7462,13 @@
         <v>41</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>41</v>
@@ -7466,7 +7476,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7489,18 +7499,18 @@
         <v>51</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>41</v>
       </c>
@@ -7548,7 +7558,7 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7566,13 +7576,13 @@
         <v>41</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>41</v>
@@ -7580,7 +7590,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7603,17 +7613,17 @@
         <v>51</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>41</v>
@@ -7662,7 +7672,7 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7680,13 +7690,13 @@
         <v>41</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>41</v>
@@ -7694,7 +7704,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7717,19 +7727,17 @@
         <v>51</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>231</v>
+        <v>52</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>41</v>
@@ -7778,7 +7786,7 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -7796,13 +7804,13 @@
         <v>41</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>41</v>
@@ -7810,11 +7818,9 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
         <v>41</v>
       </c>
@@ -7823,7 +7829,7 @@
         <v>42</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>41</v>
@@ -7835,19 +7841,19 @@
         <v>51</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>185</v>
+        <v>234</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>188</v>
+        <v>237</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>189</v>
+        <v>238</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>41</v>
@@ -7896,13 +7902,13 @@
         <v>41</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>191</v>
+        <v>239</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>41</v>
@@ -7914,13 +7920,13 @@
         <v>41</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>192</v>
+        <v>240</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>193</v>
+        <v>241</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>41</v>
@@ -7928,9 +7934,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B57" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="C57" t="s" s="2">
         <v>41</v>
       </c>
@@ -7939,7 +7947,7 @@
         <v>42</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>41</v>
@@ -7948,19 +7956,23 @@
         <v>41</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>52</v>
+        <v>188</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>175</v>
+        <v>260</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>41</v>
       </c>
@@ -8008,31 +8020,31 @@
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>41</v>
@@ -8040,18 +8052,18 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>41</v>
@@ -8063,17 +8075,15 @@
         <v>41</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>41</v>
@@ -8110,37 +8120,37 @@
         <v>41</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>182</v>
+        <v>41</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>41</v>
@@ -8154,18 +8164,18 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>41</v>
@@ -8174,29 +8184,27 @@
         <v>41</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>258</v>
+        <v>41</v>
       </c>
       <c r="R59" t="s" s="2">
         <v>41</v>
@@ -8226,43 +8234,43 @@
         <v>41</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>208</v>
+        <v>41</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>41</v>
@@ -8270,7 +8278,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8278,7 +8286,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>50</v>
@@ -8293,24 +8301,26 @@
         <v>51</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>41</v>
+        <v>261</v>
       </c>
       <c r="R60" t="s" s="2">
         <v>41</v>
@@ -8352,7 +8362,7 @@
         <v>41</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8370,13 +8380,13 @@
         <v>41</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>41</v>
@@ -8384,7 +8394,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8392,7 +8402,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>50</v>
@@ -8407,18 +8417,18 @@
         <v>51</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>41</v>
       </c>
@@ -8466,7 +8476,7 @@
         <v>41</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8484,13 +8494,13 @@
         <v>41</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>41</v>
@@ -8498,7 +8508,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8506,7 +8516,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>50</v>
@@ -8521,17 +8531,17 @@
         <v>51</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>224</v>
+        <v>262</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>41</v>
@@ -8580,7 +8590,7 @@
         <v>41</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8598,13 +8608,13 @@
         <v>41</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>41</v>
@@ -8612,7 +8622,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8635,19 +8645,17 @@
         <v>51</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>231</v>
+        <v>52</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>41</v>
@@ -8696,7 +8704,7 @@
         <v>41</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -8714,13 +8722,13 @@
         <v>41</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>41</v>
@@ -8728,11 +8736,9 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
         <v>41</v>
       </c>
@@ -8741,7 +8747,7 @@
         <v>42</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>41</v>
@@ -8753,19 +8759,19 @@
         <v>51</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>185</v>
+        <v>234</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>188</v>
+        <v>237</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>189</v>
+        <v>238</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>41</v>
@@ -8814,13 +8820,13 @@
         <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>191</v>
+        <v>239</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>41</v>
@@ -8832,13 +8838,13 @@
         <v>41</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>192</v>
+        <v>240</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>193</v>
+        <v>241</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>41</v>
@@ -8846,9 +8852,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B65" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="C65" t="s" s="2">
         <v>41</v>
       </c>
@@ -8857,7 +8865,7 @@
         <v>42</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>41</v>
@@ -8866,19 +8874,23 @@
         <v>41</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>52</v>
+        <v>188</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>175</v>
+        <v>264</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>41</v>
       </c>
@@ -8926,31 +8938,31 @@
         <v>41</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>41</v>
@@ -8958,18 +8970,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>41</v>
@@ -8981,17 +8993,15 @@
         <v>41</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>41</v>
@@ -9028,37 +9038,37 @@
         <v>41</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>182</v>
+        <v>41</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>41</v>
@@ -9072,18 +9082,18 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>41</v>
@@ -9092,29 +9102,27 @@
         <v>41</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
-        <v>262</v>
+        <v>41</v>
       </c>
       <c r="R67" t="s" s="2">
         <v>41</v>
@@ -9144,43 +9152,43 @@
         <v>41</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>208</v>
+        <v>41</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>41</v>
@@ -9188,7 +9196,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9196,7 +9204,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>50</v>
@@ -9211,24 +9219,26 @@
         <v>51</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="R68" t="s" s="2">
         <v>41</v>
@@ -9270,7 +9280,7 @@
         <v>41</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9288,13 +9298,13 @@
         <v>41</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>41</v>
@@ -9302,7 +9312,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9310,7 +9320,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>50</v>
@@ -9325,18 +9335,18 @@
         <v>51</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>41</v>
       </c>
@@ -9384,7 +9394,7 @@
         <v>41</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9402,13 +9412,13 @@
         <v>41</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>41</v>
@@ -9416,7 +9426,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9424,7 +9434,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>50</v>
@@ -9439,17 +9449,17 @@
         <v>51</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>224</v>
+        <v>266</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>41</v>
@@ -9498,7 +9508,7 @@
         <v>41</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -9516,13 +9526,13 @@
         <v>41</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>41</v>
@@ -9530,7 +9540,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9553,19 +9563,17 @@
         <v>51</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>231</v>
+        <v>52</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>41</v>
@@ -9614,7 +9622,7 @@
         <v>41</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -9632,13 +9640,13 @@
         <v>41</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>41</v>
@@ -9646,7 +9654,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9669,19 +9677,19 @@
         <v>51</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>52</v>
+        <v>234</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>41</v>
@@ -9730,7 +9738,7 @@
         <v>41</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
@@ -9748,13 +9756,13 @@
         <v>41</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>41</v>
@@ -9762,11 +9770,9 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
         <v>41</v>
       </c>
@@ -9787,18 +9793,20 @@
         <v>51</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>273</v>
+        <v>52</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>162</v>
+        <v>269</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>41</v>
       </c>
@@ -9846,10 +9854,10 @@
         <v>41</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>160</v>
+        <v>272</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>50</v>
@@ -9861,16 +9869,16 @@
         <v>62</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>168</v>
+        <v>41</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>169</v>
+        <v>273</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>171</v>
+        <v>274</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>41</v>
@@ -9878,15 +9886,17 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="B74" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>50</v>
@@ -9907,9 +9917,11 @@
         <v>277</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>41</v>
@@ -9958,7 +9970,7 @@
         <v>41</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>275</v>
+        <v>163</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>50</v>
@@ -9973,16 +9985,16 @@
         <v>62</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>279</v>
+        <v>171</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>280</v>
+        <v>172</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>281</v>
+        <v>173</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>282</v>
+        <v>174</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>41</v>
@@ -9990,7 +10002,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9998,7 +10010,7 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>50</v>
@@ -10010,16 +10022,16 @@
         <v>41</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10070,10 +10082,10 @@
         <v>41</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>50</v>
@@ -10085,16 +10097,16 @@
         <v>62</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>41</v>
@@ -10102,7 +10114,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10113,7 +10125,7 @@
         <v>42</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>41</v>
@@ -10125,13 +10137,13 @@
         <v>41</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10182,13 +10194,13 @@
         <v>41</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>41</v>
@@ -10197,16 +10209,16 @@
         <v>62</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>41</v>
+        <v>290</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>41</v>
+        <v>293</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>41</v>
@@ -10214,7 +10226,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10222,10 +10234,10 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>41</v>
@@ -10234,16 +10246,16 @@
         <v>41</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10294,13 +10306,13 @@
         <v>41</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>41</v>
@@ -10309,16 +10321,16 @@
         <v>62</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>300</v>
+        <v>41</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>303</v>
+        <v>41</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>41</v>
@@ -10326,7 +10338,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10334,10 +10346,10 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>41</v>
@@ -10349,13 +10361,13 @@
         <v>51</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10406,13 +10418,13 @@
         <v>41</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>41</v>
@@ -10421,16 +10433,16 @@
         <v>62</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>41</v>
@@ -10438,7 +10450,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10449,7 +10461,7 @@
         <v>42</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>41</v>
@@ -10458,16 +10470,16 @@
         <v>41</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>52</v>
+        <v>308</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>175</v>
+        <v>309</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>176</v>
+        <v>310</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10518,31 +10530,31 @@
         <v>41</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>177</v>
+        <v>307</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>41</v>
+        <v>311</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>178</v>
+        <v>312</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>41</v>
+        <v>313</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>41</v>
+        <v>314</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>41</v>
@@ -10550,18 +10562,18 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>41</v>
@@ -10573,17 +10585,15 @@
         <v>41</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>41</v>
@@ -10632,25 +10642,25 @@
         <v>41</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>41</v>
@@ -10664,11 +10674,11 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>315</v>
+        <v>110</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10681,26 +10691,24 @@
         <v>41</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J81" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>316</v>
+        <v>183</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>317</v>
+        <v>184</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>41</v>
       </c>
@@ -10748,7 +10756,7 @@
         <v>41</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>318</v>
+        <v>186</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>42</v>
@@ -10766,7 +10774,7 @@
         <v>41</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>93</v>
+        <v>181</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>41</v>
@@ -10780,39 +10788,43 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>41</v>
+        <v>318</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="L82" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
+      <c r="M82" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>41</v>
       </c>
@@ -10836,13 +10848,13 @@
         <v>41</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>322</v>
+        <v>41</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>323</v>
+        <v>41</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>41</v>
@@ -10860,25 +10872,25 @@
         <v>41</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>324</v>
+        <v>41</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>325</v>
+        <v>93</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>41</v>
@@ -10892,7 +10904,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10900,7 +10912,7 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F83" t="s" s="2">
         <v>50</v>
@@ -10912,16 +10924,16 @@
         <v>41</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>327</v>
+        <v>147</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -10948,13 +10960,13 @@
         <v>41</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>41</v>
+        <v>325</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>41</v>
+        <v>326</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>41</v>
@@ -10972,10 +10984,10 @@
         <v>41</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>50</v>
@@ -10987,10 +10999,10 @@
         <v>62</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>41</v>
@@ -11004,7 +11016,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11012,10 +11024,10 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>41</v>
@@ -11024,16 +11036,16 @@
         <v>41</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>144</v>
+        <v>330</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -11060,13 +11072,13 @@
         <v>41</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>335</v>
+        <v>41</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>336</v>
+        <v>41</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>41</v>
@@ -11084,13 +11096,13 @@
         <v>41</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>41</v>
@@ -11099,16 +11111,16 @@
         <v>62</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>339</v>
+        <v>41</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>41</v>
@@ -11116,7 +11128,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11139,17 +11151,15 @@
         <v>41</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>341</v>
+        <v>147</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>41</v>
@@ -11174,13 +11184,13 @@
         <v>41</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>41</v>
+        <v>338</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>41</v>
+        <v>339</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>41</v>
@@ -11198,7 +11208,7 @@
         <v>41</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>42</v>
@@ -11213,24 +11223,24 @@
         <v>62</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>347</v>
+        <v>41</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>41</v>
+        <v>342</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>348</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11238,10 +11248,10 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>41</v>
@@ -11253,16 +11263,16 @@
         <v>41</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -11312,13 +11322,13 @@
         <v>41</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>41</v>
@@ -11327,24 +11337,24 @@
         <v>62</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>41</v>
+        <v>350</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>356</v>
+        <v>41</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>41</v>
+        <v>351</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11352,10 +11362,10 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>41</v>
@@ -11367,15 +11377,17 @@
         <v>41</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M87" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>41</v>
@@ -11424,13 +11436,13 @@
         <v>41</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>41</v>
@@ -11439,16 +11451,16 @@
         <v>62</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>41</v>
+        <v>357</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>41</v>
@@ -11456,7 +11468,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11479,13 +11491,13 @@
         <v>41</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -11536,7 +11548,7 @@
         <v>41</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>42</v>
@@ -11551,16 +11563,16 @@
         <v>62</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>367</v>
+        <v>41</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>41</v>
+        <v>365</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>41</v>
@@ -11568,7 +11580,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11579,7 +11591,7 @@
         <v>42</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>41</v>
@@ -11591,13 +11603,13 @@
         <v>41</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>305</v>
+        <v>367</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11648,25 +11660,25 @@
         <v>41</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>372</v>
+        <v>62</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>41</v>
+        <v>370</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>41</v>
@@ -11680,7 +11692,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11703,13 +11715,13 @@
         <v>41</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>52</v>
+        <v>308</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>175</v>
+        <v>373</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>176</v>
+        <v>374</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11760,7 +11772,7 @@
         <v>41</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>177</v>
+        <v>372</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>42</v>
@@ -11772,13 +11784,13 @@
         <v>41</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>41</v>
+        <v>375</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>178</v>
+        <v>376</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>41</v>
@@ -11792,18 +11804,18 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>41</v>
@@ -11815,17 +11827,15 @@
         <v>41</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>41</v>
@@ -11874,25 +11884,25 @@
         <v>41</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>41</v>
@@ -11906,11 +11916,11 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>315</v>
+        <v>110</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -11923,26 +11933,24 @@
         <v>41</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J92" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>316</v>
+        <v>183</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>317</v>
+        <v>184</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>41</v>
       </c>
@@ -11990,7 +11998,7 @@
         <v>41</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>318</v>
+        <v>186</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>42</v>
@@ -12008,7 +12016,7 @@
         <v>41</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>93</v>
+        <v>181</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>41</v>
@@ -12022,39 +12030,43 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>41</v>
+        <v>318</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>378</v>
+        <v>319</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O93" t="s" s="2">
         <v>41</v>
       </c>
@@ -12102,25 +12114,25 @@
         <v>41</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>377</v>
+        <v>321</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>380</v>
+        <v>93</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>41</v>
@@ -12134,7 +12146,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12157,17 +12169,15 @@
         <v>41</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>144</v>
+        <v>52</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L94" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>384</v>
-      </c>
+      <c r="M94" s="2"/>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>41</v>
@@ -12192,13 +12202,13 @@
         <v>41</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>385</v>
+        <v>41</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>386</v>
+        <v>41</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>41</v>
@@ -12216,7 +12226,7 @@
         <v>41</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>42</v>
@@ -12234,13 +12244,13 @@
         <v>41</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>388</v>
+        <v>41</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>41</v>
@@ -12248,7 +12258,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12271,15 +12281,17 @@
         <v>41</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M95" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>41</v>
@@ -12304,13 +12316,13 @@
         <v>41</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>41</v>
@@ -12328,7 +12340,7 @@
         <v>41</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>42</v>
@@ -12346,13 +12358,13 @@
         <v>41</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>41</v>
@@ -12360,7 +12372,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12383,17 +12395,15 @@
         <v>41</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="M96" s="2"/>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>41</v>
@@ -12418,13 +12428,13 @@
         <v>41</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>41</v>
@@ -12442,7 +12452,7 @@
         <v>41</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>42</v>
@@ -12460,13 +12470,13 @@
         <v>41</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>41</v>
@@ -12474,7 +12484,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12497,16 +12507,16 @@
         <v>41</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>405</v>
+        <v>147</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -12532,13 +12542,13 @@
         <v>41</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>41</v>
+        <v>403</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>41</v>
+        <v>404</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>41</v>
@@ -12556,7 +12566,7 @@
         <v>41</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>42</v>
@@ -12574,13 +12584,13 @@
         <v>41</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>41</v>
@@ -12588,7 +12598,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12611,16 +12621,16 @@
         <v>41</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -12670,7 +12680,7 @@
         <v>41</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>42</v>
@@ -12688,13 +12698,13 @@
         <v>41</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>41</v>
@@ -12702,7 +12712,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12713,7 +12723,7 @@
         <v>42</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>41</v>
@@ -12725,16 +12735,16 @@
         <v>41</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -12784,13 +12794,13 @@
         <v>41</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>41</v>
@@ -12802,20 +12812,134 @@
         <v>41</v>
       </c>
       <c r="AK99" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="K100" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="AL99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN99" t="s" s="2">
+      <c r="L100" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN100" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN99">
+  <autoFilter ref="A1:AN100">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12825,7 +12949,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI98">
+  <conditionalFormatting sqref="A2:AI99">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
